--- a/backend/static/tpl/assets_tpl.xlsx
+++ b/backend/static/tpl/assets_tpl.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="13160"/>
+    <workbookView windowWidth="26860" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -113,6 +126,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -264,7 +278,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +287,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -458,12 +478,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -567,19 +602,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,7 +623,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,120 +635,126 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1063,50 +1104,57 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="36" customWidth="1"/>
-    <col min="8" max="9" width="30" customWidth="1"/>
-    <col min="10" max="11" width="22.5865384615385" customWidth="1"/>
+    <col min="1" max="1" width="20.9903846153846" customWidth="1"/>
+    <col min="2" max="2" width="15.5480769230769" customWidth="1"/>
+    <col min="3" max="3" width="11.3846153846154" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="8.97115384615385" customWidth="1"/>
+    <col min="6" max="6" width="10.8942307692308" customWidth="1"/>
+    <col min="7" max="7" width="27.6153846153846" customWidth="1"/>
+    <col min="8" max="8" width="35.4615384615385" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="14.4230769230769" customWidth="1"/>
+    <col min="11" max="11" width="17.6923076923077" customWidth="1"/>
     <col min="12" max="12" width="19.8653846153846" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:11">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1180,6 +1228,14 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+      <formula1>"Linux,Windows,Windows2016,Windows-RDP,Windows-TLS,Unix,AIX,BSD,Gateway,macOS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
